--- a/DataTables/Datas/monster.xlsx
+++ b/DataTables/Datas/monster.xlsx
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11">
       <c r="B14">
         <v>9</v>
       </c>
@@ -1786,6 +1786,9 @@
       </c>
       <c r="J14" t="s">
         <v>29</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:10">

--- a/DataTables/Datas/monster.xlsx
+++ b/DataTables/Datas/monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -151,21 +151,30 @@
     <t>红龙</t>
   </si>
   <si>
+    <t>1D6</t>
+  </si>
+  <si>
+    <t>image/red_dragon</t>
+  </si>
+  <si>
+    <t>1:10,2:10,3:10,8:10,4:10,5:10,7:10,6:5</t>
+  </si>
+  <si>
+    <t>蓝龙</t>
+  </si>
+  <si>
+    <t>1D7</t>
+  </si>
+  <si>
+    <t>image/blue_dragon</t>
+  </si>
+  <si>
     <t>1D8</t>
   </si>
   <si>
-    <t>image/red_dragon</t>
-  </si>
-  <si>
-    <t>蓝龙</t>
-  </si>
-  <si>
     <t>1D9</t>
   </si>
   <si>
-    <t>image/blue_dragon</t>
-  </si>
-  <si>
     <t>1D10</t>
   </si>
   <si>
@@ -257,12 +266,6 @@
   </si>
   <si>
     <t>1D40</t>
-  </si>
-  <si>
-    <t>1D41</t>
-  </si>
-  <si>
-    <t>1D42</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1234,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1245,7 +1248,7 @@
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="13.1333333333333" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:31">
@@ -1370,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -1503,7 +1506,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -1531,16 +1534,19 @@
       <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1549,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="6">
         <v>11</v>
@@ -1561,13 +1567,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1581,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="6">
         <v>12</v>
@@ -1595,16 +1604,19 @@
       <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1613,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="6">
         <v>13</v>
@@ -1625,13 +1637,16 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1645,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" s="6">
         <v>14</v>
@@ -1659,16 +1674,19 @@
       <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1677,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="6">
         <v>15</v>
@@ -1689,13 +1707,16 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>7</v>
       </c>
@@ -1709,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="6">
         <v>16</v>
@@ -1723,16 +1744,19 @@
       <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1741,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="6">
         <v>17</v>
@@ -1753,13 +1777,16 @@
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>9</v>
       </c>
@@ -1773,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="6">
         <v>18</v>
@@ -1788,6 +1815,9 @@
         <v>29</v>
       </c>
       <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
         <v>9</v>
       </c>
     </row>
@@ -1796,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1805,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="6">
         <v>19</v>
@@ -1817,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1834,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" s="6">
         <v>20</v>
@@ -1854,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -1863,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="6">
         <v>21</v>
@@ -1875,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1892,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" s="6">
         <v>22</v>
@@ -1912,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -1921,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" s="6">
         <v>23</v>
@@ -1933,7 +1963,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1950,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="6">
         <v>24</v>
@@ -1970,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -1979,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="6">
         <v>25</v>
@@ -1991,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -2008,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" s="6">
         <v>26</v>
@@ -2028,7 +2058,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2037,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="6">
         <v>27</v>
@@ -2049,7 +2079,7 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -2066,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="6">
         <v>28</v>
@@ -2086,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2095,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" s="6">
         <v>29</v>
@@ -2107,7 +2137,7 @@
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -2124,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" s="6">
         <v>30</v>
@@ -2144,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2153,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H27" s="6">
         <v>31</v>
@@ -2165,7 +2195,7 @@
         <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -2182,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H28" s="6">
         <v>32</v>
@@ -2202,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2211,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H29" s="6">
         <v>33</v>
@@ -2223,7 +2253,7 @@
         <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -2240,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H30" s="6">
         <v>34</v>
@@ -2260,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2269,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H31" s="6">
         <v>35</v>
@@ -2281,7 +2311,7 @@
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -2298,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H32" s="6">
         <v>36</v>
@@ -2318,7 +2348,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2327,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="6">
         <v>37</v>
@@ -2339,7 +2369,7 @@
         <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -2356,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H34" s="6">
         <v>38</v>
@@ -2376,7 +2406,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2385,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H35" s="6">
         <v>39</v>
@@ -2397,7 +2427,7 @@
         <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -2414,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H36" s="6">
         <v>40</v>
@@ -2434,7 +2464,7 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2443,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H37" s="6">
         <v>41</v>
@@ -2455,7 +2485,7 @@
         <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -2472,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H38" s="6">
         <v>42</v>
@@ -2492,7 +2522,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2501,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" s="6">
         <v>43</v>
@@ -2513,7 +2543,7 @@
         <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -2530,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H40" s="6">
         <v>44</v>

--- a/DataTables/Datas/monster.xlsx
+++ b/DataTables/Datas/monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -148,55 +148,115 @@
     <t>对应装备表的id</t>
   </si>
   <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>1D6</t>
+  </si>
+  <si>
+    <t>image/goblins</t>
+  </si>
+  <si>
+    <t>1:10,2:10,3:10,8:10,4:10,5:10,7:10,6:5</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>1D7</t>
+  </si>
+  <si>
+    <t>image/skeletons</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>1D8</t>
+  </si>
+  <si>
+    <t>image/werewolf</t>
+  </si>
+  <si>
+    <t>树人</t>
+  </si>
+  <si>
+    <t>1D9</t>
+  </si>
+  <si>
+    <t>image/treant</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>1D10</t>
+  </si>
+  <si>
+    <t>image/minotaur</t>
+  </si>
+  <si>
+    <t>巫妖</t>
+  </si>
+  <si>
+    <t>1D11</t>
+  </si>
+  <si>
+    <t>image/lich</t>
+  </si>
+  <si>
     <t>红龙</t>
   </si>
   <si>
-    <t>1D6</t>
+    <t>1D12</t>
   </si>
   <si>
     <t>image/red_dragon</t>
   </si>
   <si>
-    <t>1:10,2:10,3:10,8:10,4:10,5:10,7:10,6:5</t>
-  </si>
-  <si>
     <t>蓝龙</t>
   </si>
   <si>
-    <t>1D7</t>
+    <t>1D13</t>
   </si>
   <si>
     <t>image/blue_dragon</t>
   </si>
   <si>
-    <t>1D8</t>
-  </si>
-  <si>
-    <t>1D9</t>
-  </si>
-  <si>
-    <t>1D10</t>
-  </si>
-  <si>
-    <t>1D11</t>
-  </si>
-  <si>
-    <t>1D12</t>
-  </si>
-  <si>
-    <t>1D13</t>
+    <t>绿龙</t>
   </si>
   <si>
     <t>1D14</t>
   </si>
   <si>
+    <t>image/green_dragon</t>
+  </si>
+  <si>
+    <t>银龙</t>
+  </si>
+  <si>
     <t>1D15</t>
   </si>
   <si>
+    <t>image/silver_dragon</t>
+  </si>
+  <si>
+    <t>棕龙</t>
+  </si>
+  <si>
     <t>1D16</t>
   </si>
   <si>
+    <t>image/brown_dragon</t>
+  </si>
+  <si>
+    <t>黑龙</t>
+  </si>
+  <si>
     <t>1D17</t>
+  </si>
+  <si>
+    <t>image/black_dragon</t>
   </si>
   <si>
     <t>1D18</t>
@@ -1234,7 +1294,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1247,7 +1307,7 @@
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="13.1333333333333" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
     <col min="11" max="11" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1581,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1593,7 +1653,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="6">
         <v>12</v>
@@ -1602,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
@@ -1616,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1628,7 +1688,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H9" s="6">
         <v>13</v>
@@ -1637,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
         <v>30</v>
@@ -1651,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1663,7 +1723,7 @@
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H10" s="6">
         <v>14</v>
@@ -1672,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>30</v>
@@ -1686,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1698,7 +1758,7 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H11" s="6">
         <v>15</v>
@@ -1707,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
         <v>30</v>
@@ -1721,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1733,7 +1793,7 @@
         <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H12" s="6">
         <v>16</v>
@@ -1742,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
@@ -1756,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1768,7 +1828,7 @@
         <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H13" s="6">
         <v>17</v>
@@ -1777,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s">
         <v>30</v>
@@ -1791,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1803,7 +1863,7 @@
         <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H14" s="6">
         <v>18</v>
@@ -1812,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1826,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1838,7 +1898,7 @@
         <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H15" s="6">
         <v>19</v>
@@ -1847,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1855,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -1867,7 +1927,7 @@
         <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H16" s="6">
         <v>20</v>
@@ -1876,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -1884,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -1896,7 +1956,7 @@
         <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H17" s="6">
         <v>21</v>
@@ -1905,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1913,7 +1973,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -1925,7 +1985,7 @@
         <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H18" s="6">
         <v>22</v>
@@ -1934,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1942,7 +2002,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -1954,7 +2014,7 @@
         <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H19" s="6">
         <v>23</v>
@@ -1963,7 +2023,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1971,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1983,7 +2043,7 @@
         <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H20" s="6">
         <v>24</v>
@@ -1992,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -2000,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2012,7 +2072,7 @@
         <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H21" s="6">
         <v>25</v>
@@ -2021,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -2029,7 +2089,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2041,7 +2101,7 @@
         <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H22" s="6">
         <v>26</v>
@@ -2050,7 +2110,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -2058,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2070,7 +2130,7 @@
         <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H23" s="6">
         <v>27</v>
@@ -2079,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -2087,7 +2147,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2099,7 +2159,7 @@
         <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H24" s="6">
         <v>28</v>
@@ -2108,7 +2168,7 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -2116,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2128,7 +2188,7 @@
         <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H25" s="6">
         <v>29</v>
@@ -2137,7 +2197,7 @@
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -2145,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2157,7 +2217,7 @@
         <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H26" s="6">
         <v>30</v>
@@ -2166,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -2174,7 +2234,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2186,7 +2246,7 @@
         <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H27" s="6">
         <v>31</v>
@@ -2195,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -2203,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2215,7 +2275,7 @@
         <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H28" s="6">
         <v>32</v>
@@ -2224,7 +2284,7 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -2232,7 +2292,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2244,7 +2304,7 @@
         <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H29" s="6">
         <v>33</v>
@@ -2253,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -2261,7 +2321,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2273,7 +2333,7 @@
         <v>290</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H30" s="6">
         <v>34</v>
@@ -2282,7 +2342,7 @@
         <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -2290,7 +2350,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2302,7 +2362,7 @@
         <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="H31" s="6">
         <v>35</v>
@@ -2311,7 +2371,7 @@
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -2319,7 +2379,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2331,7 +2391,7 @@
         <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H32" s="6">
         <v>36</v>
@@ -2340,7 +2400,7 @@
         <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -2348,7 +2408,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2360,7 +2420,7 @@
         <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H33" s="6">
         <v>37</v>
@@ -2369,7 +2429,7 @@
         <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -2377,7 +2437,7 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2389,7 +2449,7 @@
         <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H34" s="6">
         <v>38</v>
@@ -2398,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -2406,7 +2466,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2418,7 +2478,7 @@
         <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H35" s="6">
         <v>39</v>
@@ -2427,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -2435,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2447,7 +2507,7 @@
         <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H36" s="6">
         <v>40</v>
@@ -2456,7 +2516,7 @@
         <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -2464,7 +2524,7 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2476,7 +2536,7 @@
         <v>360</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H37" s="6">
         <v>41</v>
@@ -2485,7 +2545,7 @@
         <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -2493,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2505,7 +2565,7 @@
         <v>370</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H38" s="6">
         <v>42</v>
@@ -2514,7 +2574,7 @@
         <v>32</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -2522,7 +2582,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2534,7 +2594,7 @@
         <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H39" s="6">
         <v>43</v>
@@ -2543,7 +2603,7 @@
         <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -2551,7 +2611,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2563,7 +2623,7 @@
         <v>390</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H40" s="6">
         <v>44</v>
@@ -2572,7 +2632,7 @@
         <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Datas/monster.xlsx
+++ b/DataTables/Datas/monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K6" sqref="K6:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1874,14 +1874,14 @@
       <c r="J14" t="s">
         <v>54</v>
       </c>
-      <c r="K14">
-        <v>9</v>
+      <c r="K14" t="s">
+        <v>30</v>
       </c>
       <c r="L14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:11">
       <c r="B15">
         <v>10</v>
       </c>
@@ -1909,8 +1909,11 @@
       <c r="J15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16">
         <v>11</v>
       </c>
@@ -1938,8 +1941,11 @@
       <c r="J16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>12</v>
       </c>
@@ -1967,8 +1973,11 @@
       <c r="J17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>13</v>
       </c>
@@ -1996,8 +2005,11 @@
       <c r="J18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>14</v>
       </c>
@@ -2025,8 +2037,11 @@
       <c r="J19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>15</v>
       </c>
@@ -2054,8 +2069,11 @@
       <c r="J20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>16</v>
       </c>
@@ -2083,8 +2101,11 @@
       <c r="J21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>17</v>
       </c>
@@ -2112,8 +2133,11 @@
       <c r="J22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23">
         <v>18</v>
       </c>
@@ -2141,8 +2165,11 @@
       <c r="J23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>19</v>
       </c>
@@ -2170,8 +2197,11 @@
       <c r="J24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>20</v>
       </c>
@@ -2199,8 +2229,11 @@
       <c r="J25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>21</v>
       </c>
@@ -2228,8 +2261,11 @@
       <c r="J26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>22</v>
       </c>
@@ -2257,8 +2293,11 @@
       <c r="J27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28">
         <v>23</v>
       </c>
@@ -2286,8 +2325,11 @@
       <c r="J28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29">
         <v>24</v>
       </c>
@@ -2315,8 +2357,11 @@
       <c r="J29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30">
         <v>25</v>
       </c>
@@ -2344,8 +2389,11 @@
       <c r="J30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="K30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31">
         <v>26</v>
       </c>
@@ -2373,8 +2421,11 @@
       <c r="J31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32">
         <v>27</v>
       </c>
@@ -2402,8 +2453,11 @@
       <c r="J32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="K32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>28</v>
       </c>
@@ -2431,8 +2485,11 @@
       <c r="J33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34">
         <v>29</v>
       </c>
@@ -2460,8 +2517,11 @@
       <c r="J34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35">
         <v>30</v>
       </c>
@@ -2489,8 +2549,11 @@
       <c r="J35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="K35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36">
         <v>31</v>
       </c>
@@ -2518,8 +2581,11 @@
       <c r="J36" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37">
         <v>32</v>
       </c>
@@ -2547,8 +2613,11 @@
       <c r="J37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38">
         <v>33</v>
       </c>
@@ -2576,8 +2645,11 @@
       <c r="J38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="K38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39">
         <v>34</v>
       </c>
@@ -2605,8 +2677,11 @@
       <c r="J39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="K39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40">
         <v>35</v>
       </c>
@@ -2633,6 +2708,9 @@
       </c>
       <c r="J40" t="s">
         <v>48</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
